--- a/Doc/JournalTravail.xlsx
+++ b/Doc/JournalTravail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -78,13 +78,151 @@
   </si>
   <si>
     <t>Diagramme du code Application, j'attend d'avoir le LED rgb pour faire le schéma de montage car elle a déjà été achetée par un enseignant mais je ne sais pas si c'est une simple led ou un montage.</t>
+  </si>
+  <si>
+    <t>En 2013 Microsoft a supprimé l'API pour Skype for desktop. Il n'est plus possible de l'utiliser. Il reste les Skype URI mais cela ne permet pas d'obtenir le statut. Comme je comprend cela, il n'y a plus d'api de ce genre pour skype mais seulement pour skype for business et lync</t>
+  </si>
+  <si>
+    <t>https://msdn.microsoft.com/en-us/skype/skypedeveloperplatform</t>
+  </si>
+  <si>
+    <t>https://aragonresearch.com/microsoft-kills-skype-desktop-apis-leaves-developers-scrambling/</t>
+  </si>
+  <si>
+    <t>l'API qui semble la meilleure pour skype for business sur PC est la Lync client sdk (2013). Elle devrait fonctionner avec les dernières version de skype for business.</t>
+  </si>
+  <si>
+    <t>https://msdn.microsoft.com/en-us/library/office/jj933180.aspx</t>
+  </si>
+  <si>
+    <t>Microsoft.Office.uc.dll</t>
+  </si>
+  <si>
+    <t>Microsoft.Lync.Model.dll desktop version</t>
+  </si>
+  <si>
+    <t>Microsoft.Lync.Model.dll Silverlight version</t>
+  </si>
+  <si>
+    <t>Lync 2013</t>
+  </si>
+  <si>
+    <t>Microsoft .NET Framework 4.0</t>
+  </si>
+  <si>
+    <t>Il faudra que le client dispose des éléments suivants:</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Il faut aussi que j'installe skype for business sur mon poste (pour avoir lync) qui est requi pour faire tourner une appli avec lync client API et pour pouvoir installer le sdk</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/fr-ch/help/2669244/windows-cannot-access-the-specified-device-path-or-file-error-when-you</t>
+  </si>
+  <si>
+    <t>Il est impossible d'installer skype for business depuis office365 car j'ai d'autres programmes de la suite installés par le CPNV avec Windows Installer. Il y a une version "autonome" qui permet d'avoir une version (année) différente du reste de la suite installée mais je rencontre le même problème. Une version basic est disponible mais je n'arrive pas à la lancer. Un souci avec Windows qui n'arrive pas à accèder au fichier spécifié.</t>
+  </si>
+  <si>
+    <t>Ne trouvant aucune solution pour installe ce logiciel, je contact le support du CPNV afin de ne pas rester coincé trop longtemps là-dessus.</t>
+  </si>
+  <si>
+    <t>Revue planning</t>
+  </si>
+  <si>
+    <t>Ayant commencé plus tôt que prévu par rapport aux autres tâches au début de mes recherches sur Skype, je décplace ce bloc en début d'implémentation. Je modifie aussi légèrement les temps alloués pour introduire du temps pour l'installation problèmatique.</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/en-us/download/details.aspx?id=36824</t>
+  </si>
+  <si>
+    <t>Lien pour installer le sdk de la lync client API que je vais utiliser. Il faut maintenant que skype for business soit installé et fonctionne.</t>
+  </si>
+  <si>
+    <t>Réponse du support: il fallait aller dans la page programme et fonctionnalités du panneau de config et modifier l'installation d'office. J'ai la même erreur que pour la version basic.</t>
+  </si>
+  <si>
+    <t>Recherche Skype</t>
+  </si>
+  <si>
+    <t>J'ai actuellement un enseignant qui fait aussi le support, je lui demande pour mon souci. Finalement le problème est résolu: l'anti-virus bloquait lync.exe</t>
+  </si>
+  <si>
+    <t>L'erreur que j'ai avec la version basic de skype for business correspond à ce cas mais aucun des énoncé ne résoud le problèmes.</t>
+  </si>
+  <si>
+    <t>Problème suivant: la connexion à Skype for business semble impossible. Il est possible qu'elle soit bloquée par un pare-feu quelque part. Le support regarde pour demain.</t>
+  </si>
+  <si>
+    <t>Fixation nouveau sprint avec M.Ithurbide</t>
+  </si>
+  <si>
+    <t>Passage en revue du projet avec M.Folomietow</t>
+  </si>
+  <si>
+    <t>Schéma de montage Arduino. Je dispose déjà du schéma pour monter le module Bluetooth, avec un diviseur résistif sur le Rx du module car ce dernier n'aime pas avoir plus de 3.3v et le pin de l'Arduino envoie 5v.</t>
+  </si>
+  <si>
+    <t>https://www.arduino.cc/en/Tutorial/Button</t>
+  </si>
+  <si>
+    <t>Le bouton se monte avec une résistance pull-down pour éviter d'avoir des faux positifs.</t>
+  </si>
+  <si>
+    <t>https://learn.adafruit.com/adafruit-neopixel-uberguide/basic-connections</t>
+  </si>
+  <si>
+    <t>La barrette de LEDs se connecte simplement au 5v, gnd et à un pin. La résistance suggèrée par l'article est déjà inclue sur la barrette.</t>
+  </si>
+  <si>
+    <t>Skype</t>
+  </si>
+  <si>
+    <t>Il m'est toujours impossible de me connecter.</t>
+  </si>
+  <si>
+    <t>Le problème avec la connexion est résolu: le support a activé la fonctionnalité chez microsoft.</t>
+  </si>
+  <si>
+    <t>https://www.eshlomo.us/skype-for-business-2016-sdk-and-lync-2013-sdk/</t>
+  </si>
+  <si>
+    <t>Je ne peux pas installer le SDK via l'exe car je n'ai pas lync 2013 installé. Voici la solution appliquée:</t>
+  </si>
+  <si>
+    <t>Création d'un projet afin de tester et découvrir les fonctionnalités du sdk.</t>
+  </si>
+  <si>
+    <t>Ajouter la librairie: C:\Program Files (x86)\Microsoft Office 2013\LyncSDK\Assemblies\Desktop\Microsoft.Lync.Model.dll</t>
+  </si>
+  <si>
+    <t>Dans un projet WPF, des contrôles lync sont ajoutés (pas dans un windows forms). Je vais donc partir sur un WPF pour l'application.</t>
+  </si>
+  <si>
+    <t>https://blog.thoughtstuff.co.uk/2015/02/pausing-lync-when-on-a-call-using-the-lync-client-sdk/</t>
+  </si>
+  <si>
+    <t>Ce blog parle d'un petit logiciel qui pause la musique lorsqu'il y a un appel. L'auteur utilise les contrôles sélécteur et indicateur de présence. Je pourrais donc m'inspirer de son code.</t>
+  </si>
+  <si>
+    <t>Le contrôle "sélécteur de présence" est automatiquement lié à Skype et si Skype n'est pas lancé il est indépendant (Donc pas d'erreur à gérer). Cela va être très pratique. En revanche le contrôle indiquant la présence nécéssite de spécifier l'utilisateur. Il y a aussi un contrôle avec le tout intègré(présence couleur, profil, nom, changement présence,activité du jour)</t>
+  </si>
+  <si>
+    <t>Montage Arduino</t>
+  </si>
+  <si>
+    <t>Montage du boitier. Le tout est placé sur une breadboard sur un shield de prototyping.</t>
+  </si>
+  <si>
+    <t>Légère modification du diagramme de code de l'application suite à la simplification due à l'API Skype.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +234,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -132,30 +278,473 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,168 +1023,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="23" customWidth="1"/>
     <col min="4" max="4" width="52" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="14">
         <v>43235</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="14">
         <v>43235</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="15">
         <v>1.5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="16">
         <v>43235</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="17">
         <v>1.5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="18">
         <v>43236</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="19">
         <v>0.5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="14">
         <v>43236</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="14">
         <v>43236</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="16">
         <v>43236</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="17">
         <v>2.5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="18">
         <v>43237</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="19">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="14">
         <v>43237</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="15">
         <v>2.5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>43237</v>
+      </c>
+      <c r="B11" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="45"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
+        <v>43238</v>
+      </c>
+      <c r="B14" s="47">
+        <v>3.5</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>43238</v>
+      </c>
+      <c r="B23" s="21">
+        <v>2</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>43242</v>
+      </c>
+      <c r="B24" s="37">
+        <v>1</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>43242</v>
+      </c>
+      <c r="B28" s="25">
+        <v>0</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <v>43242</v>
+      </c>
+      <c r="B29" s="36">
+        <v>1</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
+        <v>43242</v>
+      </c>
+      <c r="B31" s="36">
+        <v>2</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="45"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="46">
+        <v>43243</v>
+      </c>
+      <c r="B33" s="47">
+        <v>1</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <v>43243</v>
+      </c>
+      <c r="B35" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="39">
+        <v>43243</v>
+      </c>
+      <c r="B36" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
+        <v>43243</v>
+      </c>
+      <c r="B41" s="36">
+        <v>1</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="39">
+        <v>43243</v>
+      </c>
+      <c r="B44" s="36">
+        <v>2</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20">
+        <v>43243</v>
+      </c>
+      <c r="B50" s="21">
+        <v>1</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <v>43244</v>
+      </c>
+      <c r="B51" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D29" r:id="rId1"/>
+    <hyperlink ref="D39" r:id="rId2"/>
+    <hyperlink ref="D37" r:id="rId3"/>
+    <hyperlink ref="D25" r:id="rId4"/>
+    <hyperlink ref="D15" r:id="rId5"/>
+    <hyperlink ref="D13" r:id="rId6"/>
+    <hyperlink ref="D12" r:id="rId7"/>
+    <hyperlink ref="D43" r:id="rId8"/>
+    <hyperlink ref="D48" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Gras"Présentiel pour open space&amp;C&amp;"-,Gras"&amp;14Journal de travail&amp;R&amp;"-,Gras"Cyril Kalbfuss</oddHeader>
   </headerFooter>

--- a/Doc/JournalTravail.xlsx
+++ b/Doc/JournalTravail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -216,13 +216,94 @@
   </si>
   <si>
     <t>Légère modification du diagramme de code de l'application suite à la simplification due à l'API Skype.</t>
+  </si>
+  <si>
+    <t>Code Arduino</t>
+  </si>
+  <si>
+    <t>Je commence avec la partie communication du boitier. Mon module bluetooth a un pin STATE qui indique s'il est apairé ou non.</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de patte sur ce pin, j'y soude un câble.</t>
+  </si>
+  <si>
+    <t>Création d'un code pour tester: c'est bon.</t>
+  </si>
+  <si>
+    <t>Test des LEDs et du bouton</t>
+  </si>
+  <si>
+    <t>Installation librairie neoPixel</t>
+  </si>
+  <si>
+    <t>https://learn.adafruit.com/adafruit-neopixel-uberguide/arduino-library-use</t>
+  </si>
+  <si>
+    <t>J'arrive à allumer les LEDs mais la couleur est différente sur chaque LED(devraient être toutes les mêmes), les deux dernières ne s'allument pas et deux d'entre elles changent de couleur au fil de l'éxecution.</t>
+  </si>
+  <si>
+    <r>
+      <t>J'ai une bande avec des pixels RGB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> donc il faut indiquer ça à la création de l'objet contrôlant les LEDs.</t>
+    </r>
+  </si>
+  <si>
+    <t>Je regarde pour faire les interruptions. Il y a visiblement deux pins pour ça(2 et 3). Je vais mettre le bouton et STATE dessus. La loop gèrera la récéption Serial</t>
+  </si>
+  <si>
+    <t>Le bouton permet maintenant de passer à la couleur suivante mais ça change des fois quand le bouton descend, des fois quand il monte et des fois les deux. Lorsque le Bluetooth se connecte ou déconnecte, la couleur change.</t>
+  </si>
+  <si>
+    <t>Je regarde avec M.Ithurbide qui m'explique les rebonds du bouton. On va mettre un condo en // du bouton ainsi qu'utiliser un semaphore. Aussi il m'explique les machine à Etat.</t>
+  </si>
+  <si>
+    <t>Ajout du condo. Le souci est que ce montage avec le condensateur et la résistance pull-down inverse l'état.</t>
+  </si>
+  <si>
+    <t>En fait c'est parce que je mesure en //du bouton donc chute de tension de 5v dans le voltmètre. On pourrait mettre un filtre passe bas au lieu de mettre le condo en //.</t>
+  </si>
+  <si>
+    <t>Implémentation state machine, changement couleur, envoi de message au changement</t>
+  </si>
+  <si>
+    <t>Récéption Bluetooth: les messages seront soit pour changer la couleur (GREEN / RED / …) soit pour demander la présence (PING)</t>
+  </si>
+  <si>
+    <t>Je vais enlever mon interruption sur la fin du bluetooth car cela ne change finalement rien: si il n'y a plus de Bluetooth, il doit envoyer via USB. A la place, je vais périodiquement vérifier la présence de l'appli.</t>
+  </si>
+  <si>
+    <t>http://www.instructables.com/id/Arduino-Timer-Interrupts/</t>
+  </si>
+  <si>
+    <t>Mise en place interruption par timer et système check connection. Souci: le timeout change la couleur à bleu seulement s'il y a un terminal serial…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +327,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -261,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -591,6 +681,41 @@
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -598,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -703,22 +828,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -727,19 +867,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1023,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,13 +1317,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="A11" s="43">
         <v>43237</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="41">
         <v>3.5</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="41" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1194,29 +1331,29 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
+      <c r="A14" s="36">
         <v>43238</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="38">
         <v>3.5</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1224,65 +1361,65 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="8" t="s">
         <v>30</v>
       </c>
@@ -1302,13 +1439,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
+      <c r="A24" s="43">
         <v>43242</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="41">
         <v>1</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1316,25 +1453,25 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="42"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="8" t="s">
         <v>38</v>
       </c>
@@ -1354,13 +1491,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+      <c r="A29" s="42">
         <v>43242</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="40">
         <v>1</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="40" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="29" t="s">
@@ -1368,21 +1505,21 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+      <c r="A31" s="42">
         <v>43242</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="40">
         <v>2</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="40" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="28" t="s">
@@ -1391,20 +1528,20 @@
     </row>
     <row r="32" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46">
+      <c r="A33" s="36">
         <v>43243</v>
       </c>
-      <c r="B33" s="47">
+      <c r="B33" s="38">
         <v>1</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="38" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1412,9 +1549,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
@@ -1434,13 +1571,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
+      <c r="A36" s="42">
         <v>43243</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="40">
         <v>1.5</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="28" t="s">
@@ -1448,45 +1585,45 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
+      <c r="A41" s="42">
         <v>43243</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="40">
         <v>1</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="40" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="28" t="s">
@@ -1494,29 +1631,29 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
+      <c r="A44" s="42">
         <v>43243</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="40">
         <v>2</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="40" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="34" t="s">
@@ -1524,41 +1661,41 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="8" t="s">
         <v>59</v>
       </c>
@@ -1591,20 +1728,222 @@
         <v>63</v>
       </c>
     </row>
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="42">
+        <v>43244</v>
+      </c>
+      <c r="B52" s="40">
+        <v>2</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="37"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="42">
+        <v>43244</v>
+      </c>
+      <c r="B55" s="40">
+        <v>2</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="43"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="43"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="37"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="42">
+        <v>43244</v>
+      </c>
+      <c r="B60" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="37"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="20">
+        <v>43244</v>
+      </c>
+      <c r="B62" s="21">
+        <v>1</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="36">
+        <v>43245</v>
+      </c>
+      <c r="B63" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="37"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="42">
+        <v>43245</v>
+      </c>
+      <c r="B65" s="40">
+        <v>2</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="43"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="42">
+        <v>43245</v>
+      </c>
+      <c r="B68" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="45"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
+  <mergeCells count="44">
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C24:C27"/>
@@ -1614,12 +1953,18 @@
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="B14:B22"/>
     <mergeCell ref="C14:C22"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A36:A40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D29" r:id="rId1"/>
@@ -1631,9 +1976,10 @@
     <hyperlink ref="D12" r:id="rId7"/>
     <hyperlink ref="D43" r:id="rId8"/>
     <hyperlink ref="D48" r:id="rId9"/>
+    <hyperlink ref="D57" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Gras"Présentiel pour open space&amp;C&amp;"-,Gras"&amp;14Journal de travail&amp;R&amp;"-,Gras"Cyril Kalbfuss</oddHeader>
   </headerFooter>

--- a/Doc/JournalTravail.xlsx
+++ b/Doc/JournalTravail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -297,6 +297,42 @@
   </si>
   <si>
     <t>Mise en place interruption par timer et système check connection. Souci: le timeout change la couleur à bleu seulement s'il y a un terminal serial…</t>
+  </si>
+  <si>
+    <t>Code App</t>
+  </si>
+  <si>
+    <t>Création projet, import Lync</t>
+  </si>
+  <si>
+    <t>Création des évènements en rapport avec les changements sur skype. Les évènements ne sont pas disponible depuis l'interface ajoutée, je dois créer un objet Client.</t>
+  </si>
+  <si>
+    <t>Création liste déroulante pour si jamais skype n'est pas connecté. J'ai un souci pour faire qu'elle soit au même statut que Skype pour qu'au cas ou Skype serait déconnecté, le statut ne change pas. Le souci vient que l'objet de skype et le reste ne sont pas dans le même thread. La solution pourrait être de lancer un event dans le thread UI depuis cela de Skype mais je résoudrais ce souci plus tard: Faire fonctionner le lien App-&gt;boitier est prioritaire.</t>
+  </si>
+  <si>
+    <t>Changement de la couleur de LED au changement de statut sur la liste déroulante de l'app et inversément. Système de détéction d'absence du boitier: si l'app ne reçoit pas de message "PING" toutes les x secondes (setting) alors le boitier est déconnecté.</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/11559999/how-do-i-create-a-timer-in-wpf</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com/Questions/228124/serial-port-using-threading</t>
+  </si>
+  <si>
+    <t>Création d'un classe pour la communication serial qui gère un thread pour resté séparée de l'UI. Utilise la solution 2 du lien</t>
+  </si>
+  <si>
+    <t>Ajout d'un indicateur couleur pour le statut si Skype est déconnecté.</t>
+  </si>
+  <si>
+    <t>Ajout du texte pour skype est déconnecté</t>
+  </si>
+  <si>
+    <t>Ajout du texte pour boitier est déconnecté et lien avec statut précédemment codé</t>
+  </si>
+  <si>
+    <t>Il faut maintenant gérer les évènements de skype pour pouvoir modifier les éléments UI en rapport.</t>
   </si>
 </sst>
 </file>
@@ -723,7 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -828,45 +864,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -876,8 +873,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1160,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:D69"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,13 +1389,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="A11" s="50">
         <v>43237</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="49">
         <v>3.5</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="49" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1331,29 +1403,29 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="47">
         <v>43238</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="45">
         <v>3.5</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="45" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1361,65 +1433,65 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="8" t="s">
         <v>30</v>
       </c>
@@ -1439,13 +1511,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
+      <c r="A24" s="50">
         <v>43242</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="49">
         <v>1</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="49" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1453,25 +1525,25 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="47"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="8" t="s">
         <v>38</v>
       </c>
@@ -1491,13 +1563,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="42">
+      <c r="A29" s="39">
         <v>43242</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="41">
         <v>1</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="41" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="29" t="s">
@@ -1505,21 +1577,21 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="42">
+      <c r="A31" s="39">
         <v>43242</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="41">
         <v>2</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="28" t="s">
@@ -1527,21 +1599,21 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
+      <c r="A33" s="47">
         <v>43243</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="45">
         <v>1</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="45" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1549,9 +1621,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
@@ -1571,13 +1643,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="42">
+      <c r="A36" s="39">
         <v>43243</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="41">
         <v>1.5</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="28" t="s">
@@ -1585,45 +1657,45 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="42">
+      <c r="A41" s="39">
         <v>43243</v>
       </c>
-      <c r="B41" s="40">
+      <c r="B41" s="41">
         <v>1</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="28" t="s">
@@ -1631,29 +1703,29 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="42">
+      <c r="A44" s="39">
         <v>43243</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B44" s="41">
         <v>2</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="41" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="34" t="s">
@@ -1661,41 +1733,41 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="8" t="s">
         <v>59</v>
       </c>
@@ -1729,47 +1801,47 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="42">
+      <c r="A52" s="39">
         <v>43244</v>
       </c>
-      <c r="B52" s="40">
+      <c r="B52" s="41">
         <v>2</v>
       </c>
       <c r="C52" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="41"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="39"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="37" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="42">
+      <c r="A55" s="39">
         <v>43244</v>
       </c>
-      <c r="B55" s="40">
+      <c r="B55" s="41">
         <v>2</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="41" t="s">
         <v>64</v>
       </c>
       <c r="D55" s="28" t="s">
@@ -1777,45 +1849,45 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="51" t="s">
+      <c r="A59" s="48"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="42">
+      <c r="A60" s="39">
         <v>43244</v>
       </c>
-      <c r="B60" s="40">
+      <c r="B60" s="41">
         <v>1.5</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="41" t="s">
         <v>64</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -1823,10 +1895,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="51" t="s">
+      <c r="A61" s="48"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1845,13 +1917,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36">
+      <c r="A63" s="47">
         <v>43245</v>
       </c>
-      <c r="B63" s="38">
+      <c r="B63" s="45">
         <v>1.5</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="43" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -1859,21 +1931,21 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="48"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="44"/>
       <c r="D64" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="42">
+      <c r="A65" s="39">
         <v>43245</v>
       </c>
-      <c r="B65" s="40">
+      <c r="B65" s="41">
         <v>2</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="41" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="28" t="s">
@@ -1881,46 +1953,214 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="42">
+      <c r="A68" s="39">
         <v>43245</v>
       </c>
-      <c r="B68" s="40">
+      <c r="B68" s="41">
         <v>1.5</v>
       </c>
-      <c r="C68" s="40" t="s">
+      <c r="C68" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="29" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="45"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
       <c r="D69" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18">
+        <v>43249</v>
+      </c>
+      <c r="B70" s="19">
+        <v>1</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="24">
+        <v>43249</v>
+      </c>
+      <c r="B71" s="25">
+        <v>1</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="20">
+        <v>43249</v>
+      </c>
+      <c r="B72" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="55">
+        <v>43250</v>
+      </c>
+      <c r="B73" s="53">
+        <v>2</v>
+      </c>
+      <c r="C73" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="57"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="59">
+        <v>43250</v>
+      </c>
+      <c r="B75" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="C75" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="57"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="59">
+        <v>43250</v>
+      </c>
+      <c r="B77" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="C77" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="56"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="56"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="63"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="53">
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="C68:C69"/>
@@ -1930,41 +2170,6 @@
     <mergeCell ref="C65:C67"/>
     <mergeCell ref="B65:B67"/>
     <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A36:A40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D29" r:id="rId1"/>
@@ -1977,9 +2182,12 @@
     <hyperlink ref="D43" r:id="rId8"/>
     <hyperlink ref="D48" r:id="rId9"/>
     <hyperlink ref="D57" r:id="rId10"/>
+    <hyperlink ref="D68" r:id="rId11"/>
+    <hyperlink ref="D76" r:id="rId12"/>
+    <hyperlink ref="D74" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Gras"Présentiel pour open space&amp;C&amp;"-,Gras"&amp;14Journal de travail&amp;R&amp;"-,Gras"Cyril Kalbfuss</oddHeader>
   </headerFooter>

--- a/Doc/JournalTravail.xlsx
+++ b/Doc/JournalTravail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -333,6 +333,54 @@
   </si>
   <si>
     <t>Il faut maintenant gérer les évènements de skype pour pouvoir modifier les éléments UI en rapport.</t>
+  </si>
+  <si>
+    <t>Ajout des évènements de synchronisation entre le thread de skype et celui de l'UI. Si Skype n'est pas lancé, impossible d'avoir le Client. Dans ce cas il faudra vérifier périodiquement. De plus lorsque Skype est quitté sans fair signOut, cela provoque aussi un crash.</t>
+  </si>
+  <si>
+    <t>Ajout des mesures pour la détéction de connexion skype et le lancement de skype en cours d'exécution</t>
+  </si>
+  <si>
+    <t>Il y a un souci du côté de l'arduino. Après quelques tests, il arrive que plusieurs lignes arrivent trop proche et qu'il les prenne comme une seule. Je vais devoir gérer ça.</t>
+  </si>
+  <si>
+    <t>Correction du souci multiligne</t>
+  </si>
+  <si>
+    <t>Mise à jour de la présence skype lorsqu'appui sur le bouton</t>
+  </si>
+  <si>
+    <t>https://blog.thoughtstuff.co.uk/2016/06/skypedevq-updating-skype-for-business-presence-client-sdk/</t>
+  </si>
+  <si>
+    <t>Test App</t>
+  </si>
+  <si>
+    <t>il reste des soucis de synchronisation lorsqu'il y a une reconnexion de skype. (Skype est déconnecté en cours d'exécution puis reconnecté, ça ne met plus à jour de l'app au boitier)</t>
+  </si>
+  <si>
+    <t>Lorsque Skype est reconnecté, les evènements pour l'activité ne se déclenchent plu. Ceux pour la connexion par contre, si. Si je quitte complètement Skype et relance, plus rien n'est capté. Il faut donc que je recréer l'objet lorsque Skype quitte et qui je refasse l'event lorsque skype se reconnecte.</t>
+  </si>
+  <si>
+    <t>Pour la reconnexion: simple il suffit de reset un de mes flags à signout. Pour le cas ou le programme quitte, cela ne lance pas l'état "shutting down". J'utilise l'évènement ClientDisconnected disponible pour les objetc LyncClient mais pas Client. Je change donc le type de mon objet client.</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Analyse à l'oscilloscope des appui de boutons avec et sans filtre</t>
+  </si>
+  <si>
+    <t>Problème suivant: lors du lancement de l'app , le boitier ne chanche pas sa couleur. Le problème vient du fait qu'il y a deux "send" très proche et la fonction que j'ai fait n'en permet qu'un à la fois. Je vais mettre une liste au lieu d'une seule String</t>
+  </si>
+  <si>
+    <t>Ajout d'images logo usb et bluetooth en tant que resources et création d'un bouton pour le switch usb/bluetooth.</t>
+  </si>
+  <si>
+    <t>Code switch sur appui du bouton. Souci: on ne peut pas revenir sur le mode précédent. Le port est occupé.</t>
+  </si>
+  <si>
+    <t>Revue partie conception matérielle. Préparation du rendu et synchronisation github.</t>
   </si>
 </sst>
 </file>
@@ -759,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -792,51 +840,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -873,82 +897,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1232,28 +1286,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="10" style="66" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="17" customWidth="1"/>
     <col min="4" max="4" width="52" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -1263,13 +1317,13 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="33">
         <v>43235</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="34">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -1277,13 +1331,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="33">
         <v>43235</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="34">
         <v>1.5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1291,13 +1345,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="37">
         <v>43235</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="38">
         <v>1.5</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1305,13 +1359,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="62">
         <v>43236</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="59">
         <v>0.5</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1319,13 +1373,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="33">
         <v>43236</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1333,13 +1387,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="33">
         <v>43236</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="34">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -1347,13 +1401,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="37">
         <v>43236</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="38">
         <v>2.5</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1361,13 +1415,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="62">
         <v>43237</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="59">
         <v>1</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -1375,13 +1429,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="33">
         <v>43237</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="34">
         <v>2.5</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1389,13 +1443,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+      <c r="A11" s="43">
         <v>43237</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="40">
         <v>3.5</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="52" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1403,18 +1457,18 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="30" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="32" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1425,7 +1479,7 @@
       <c r="B14" s="45">
         <v>3.5</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="49" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1433,57 +1487,57 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="30" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1491,19 +1545,19 @@
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="63">
         <v>43238</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="60">
         <v>2</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -1511,13 +1565,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50">
+      <c r="A24" s="43">
         <v>43242</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="40">
         <v>1</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1525,17 +1579,17 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="31" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="51"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="4" t="s">
         <v>33</v>
       </c>
@@ -1543,19 +1597,19 @@
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="44"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="64">
         <v>43242</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="57">
         <v>0</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -1563,45 +1617,45 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+      <c r="A29" s="42">
         <v>43242</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="39">
         <v>1</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+      <c r="A31" s="42">
         <v>43242</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="39">
         <v>2</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
@@ -1613,7 +1667,7 @@
       <c r="B33" s="45">
         <v>1</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="49" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1623,19 +1677,19 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
+      <c r="A35" s="32">
         <v>43243</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="31">
         <v>0.5</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1643,69 +1697,69 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
+      <c r="A36" s="42">
         <v>43243</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="39">
         <v>1.5</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="30" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="30" t="s">
+      <c r="A39" s="43"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
+      <c r="A41" s="42">
         <v>43243</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="39">
         <v>1</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="4" t="s">
         <v>54</v>
       </c>
@@ -1713,87 +1767,87 @@
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="50"/>
+      <c r="D43" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
+      <c r="A44" s="42">
         <v>43243</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="39">
         <v>2</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="26" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="30" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20">
+      <c r="A50" s="63">
         <v>43243</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="60">
         <v>1</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="27" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
+      <c r="A51" s="62">
         <v>43244</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="59">
         <v>0.5</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="9" t="s">
@@ -1801,73 +1855,73 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="39">
+      <c r="A52" s="42">
         <v>43244</v>
       </c>
-      <c r="B52" s="41">
+      <c r="B52" s="39">
         <v>2</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="25" t="s">
+      <c r="A53" s="43"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="28" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="46"/>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="39">
+      <c r="A55" s="42">
         <v>43244</v>
       </c>
-      <c r="B55" s="41">
+      <c r="B55" s="39">
         <v>2</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="30" t="s">
+      <c r="A57" s="43"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="4" t="s">
         <v>71</v>
       </c>
@@ -1875,19 +1929,19 @@
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="38" t="s">
+      <c r="C59" s="50"/>
+      <c r="D59" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="39">
+      <c r="A60" s="42">
         <v>43244</v>
       </c>
-      <c r="B60" s="41">
+      <c r="B60" s="39">
         <v>1.5</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="51" t="s">
         <v>64</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -1897,19 +1951,19 @@
     <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="38" t="s">
+      <c r="C61" s="50"/>
+      <c r="D61" s="30" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20">
+      <c r="A62" s="63">
         <v>43244</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="60">
         <v>1</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="11" t="s">
@@ -1923,7 +1977,7 @@
       <c r="B63" s="45">
         <v>1.5</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="56" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -1933,29 +1987,29 @@
     <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
       <c r="B64" s="46"/>
-      <c r="C64" s="44"/>
+      <c r="C64" s="55"/>
       <c r="D64" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="39">
+      <c r="A65" s="42">
         <v>43245</v>
       </c>
-      <c r="B65" s="41">
+      <c r="B65" s="39">
         <v>2</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="20" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="4" t="s">
         <v>80</v>
       </c>
@@ -1963,41 +2017,41 @@
     <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="48"/>
       <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="39">
+      <c r="A68" s="42">
         <v>43245</v>
       </c>
-      <c r="B68" s="41">
+      <c r="B68" s="39">
         <v>1.5</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18">
+      <c r="A70" s="62">
         <v>43249</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B70" s="59">
         <v>1</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D70" s="9" t="s">
@@ -2005,41 +2059,41 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="24">
+      <c r="A71" s="64">
         <v>43249</v>
       </c>
-      <c r="B71" s="25">
+      <c r="B71" s="57">
         <v>1</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="20">
+      <c r="A72" s="63">
         <v>43249</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="60">
         <v>1.5</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="55">
+      <c r="A73" s="47">
         <v>43250</v>
       </c>
-      <c r="B73" s="53">
+      <c r="B73" s="45">
         <v>2</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="45" t="s">
         <v>83</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -2047,76 +2101,295 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="33" t="s">
+      <c r="A74" s="48"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="59">
+      <c r="A75" s="42">
         <v>43250</v>
       </c>
-      <c r="B75" s="60">
+      <c r="B75" s="39">
         <v>1.5</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C75" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="61" t="s">
+      <c r="D75" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="62" t="s">
+      <c r="A76" s="48"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="36" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="59">
+      <c r="A77" s="42">
         <v>43250</v>
       </c>
-      <c r="B77" s="60">
+      <c r="B77" s="39">
         <v>0.5</v>
       </c>
-      <c r="C77" s="60" t="s">
+      <c r="C77" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
       <c r="D78" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
       <c r="D79" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="63"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="64"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:4" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="47">
+        <v>43251</v>
+      </c>
+      <c r="B81" s="45">
+        <v>4</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="43"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="48"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="64">
+        <v>43251</v>
+      </c>
+      <c r="B84" s="57">
+        <v>1</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="42">
+        <v>43251</v>
+      </c>
+      <c r="B85" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="48"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="63">
+        <v>43251</v>
+      </c>
+      <c r="B87" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="47">
+        <v>43252</v>
+      </c>
+      <c r="B88" s="45">
+        <v>2</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89" s="43"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="48"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="64">
+        <v>43252</v>
+      </c>
+      <c r="B91" s="57">
+        <v>1</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="64">
+        <v>43252</v>
+      </c>
+      <c r="B92" s="57">
+        <v>1</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="64">
+        <v>43252</v>
+      </c>
+      <c r="B93" s="57">
+        <v>1</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="63">
+        <v>43252</v>
+      </c>
+      <c r="B94" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="62">
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A36:A40"/>
     <mergeCell ref="C77:C80"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="B77:B80"/>
@@ -2126,50 +2399,6 @@
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D29" r:id="rId1"/>
@@ -2185,9 +2414,10 @@
     <hyperlink ref="D68" r:id="rId11"/>
     <hyperlink ref="D76" r:id="rId12"/>
     <hyperlink ref="D74" r:id="rId13"/>
+    <hyperlink ref="D86" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Gras"Présentiel pour open space&amp;C&amp;"-,Gras"&amp;14Journal de travail&amp;R&amp;"-,Gras"Cyril Kalbfuss</oddHeader>
   </headerFooter>

--- a/Doc/JournalTravail.xlsx
+++ b/Doc/JournalTravail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -381,6 +381,36 @@
   </si>
   <si>
     <t>Revue partie conception matérielle. Préparation du rendu et synchronisation github.</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Visual studio indique une licence demo expirée. Il me faut un moment pour retrouver la clef.</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Le fil pour le "state du bluetooth a lâché. Pas étonnant que la communication ne fonctionne plus.</t>
+  </si>
+  <si>
+    <t>Correction du souci avec le port occupé: fermer correctement la connexion au changement.</t>
+  </si>
+  <si>
+    <t>Aide aux camarades</t>
+  </si>
+  <si>
+    <t>J'ai fabriqué un boitier. Soudage de fil à un bouton externe et mise en place des composants.</t>
+  </si>
+  <si>
+    <t>Page de paramètres pour les ports COM et bouton pour l'afficher/cacher</t>
+  </si>
+  <si>
+    <t>http://labloguera.net/javier/2011/09/binding-wpf-properties-to-applicationsettings-in-c/</t>
+  </si>
+  <si>
+    <t>Gestion des erreurs lors de la connexion Serial et gestion de tentatives de reconnexion. Ajout d'une page d'info accessible en cliquant sur le message d'erreur de connexion indiquant des solutions possibles.</t>
   </si>
 </sst>
 </file>
@@ -921,88 +951,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1286,25 +1316,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="66" customWidth="1"/>
+    <col min="1" max="1" width="10" style="47" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="31" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="17" customWidth="1"/>
     <col min="4" max="4" width="52" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -1359,10 +1389,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62">
+      <c r="A5" s="44">
         <v>43236</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="41">
         <v>0.5</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -1415,10 +1445,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62">
+      <c r="A9" s="44">
         <v>43237</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="41">
         <v>1</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -1443,13 +1473,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="A11" s="52">
         <v>43237</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="49">
         <v>3.5</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1457,29 +1487,29 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="52"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="53"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47">
+      <c r="A14" s="51">
         <v>43238</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="48">
         <v>3.5</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="65" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1487,74 +1517,74 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="52"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="52"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="52"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="50"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63">
+      <c r="A23" s="45">
         <v>43238</v>
       </c>
-      <c r="B23" s="60">
+      <c r="B23" s="42">
         <v>2</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -1565,13 +1595,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
+      <c r="A24" s="52">
         <v>43242</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="49">
         <v>1</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="62" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1579,34 +1609,34 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="52"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="54"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="55"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="64">
+      <c r="A28" s="46">
         <v>43242</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="39">
         <v>0</v>
       </c>
       <c r="C28" s="18" t="s">
@@ -1617,13 +1647,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="42">
+      <c r="A29" s="55">
         <v>43242</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="54">
         <v>1</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="58" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -1631,21 +1661,21 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="50"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="42">
+      <c r="A31" s="55">
         <v>43242</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="54">
         <v>2</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -1653,21 +1683,21 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="53"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47">
+      <c r="A33" s="51">
         <v>43243</v>
       </c>
-      <c r="B33" s="45">
+      <c r="B33" s="48">
         <v>1</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="65" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1675,9 +1705,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="50"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
@@ -1697,13 +1727,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="42">
+      <c r="A36" s="55">
         <v>43243</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="54">
         <v>1.5</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="58" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="20" t="s">
@@ -1711,45 +1741,45 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="52"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="52"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="52"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="50"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="42">
+      <c r="A41" s="55">
         <v>43243</v>
       </c>
-      <c r="B41" s="39">
+      <c r="B41" s="54">
         <v>1</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -1757,29 +1787,29 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="52"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="50"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="42">
+      <c r="A44" s="55">
         <v>43243</v>
       </c>
-      <c r="B44" s="39">
+      <c r="B44" s="54">
         <v>2</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="58" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="26" t="s">
@@ -1787,50 +1817,50 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="52"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="52"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="52"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="52"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="50"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="63">
+      <c r="A50" s="45">
         <v>43243</v>
       </c>
-      <c r="B50" s="60">
+      <c r="B50" s="42">
         <v>1</v>
       </c>
       <c r="C50" s="16" t="s">
@@ -1841,10 +1871,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="62">
+      <c r="A51" s="44">
         <v>43244</v>
       </c>
-      <c r="B51" s="59">
+      <c r="B51" s="41">
         <v>0.5</v>
       </c>
       <c r="C51" s="15" t="s">
@@ -1855,10 +1885,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="42">
+      <c r="A52" s="55">
         <v>43244</v>
       </c>
-      <c r="B52" s="39">
+      <c r="B52" s="54">
         <v>2</v>
       </c>
       <c r="C52" s="18" t="s">
@@ -1869,8 +1899,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="40"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="18" t="s">
         <v>61</v>
       </c>
@@ -1879,8 +1909,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="46"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="18" t="s">
         <v>64</v>
       </c>
@@ -1889,13 +1919,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="42">
+      <c r="A55" s="55">
         <v>43244</v>
       </c>
-      <c r="B55" s="39">
+      <c r="B55" s="54">
         <v>2</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D55" s="20" t="s">
@@ -1903,45 +1933,45 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="52"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="52"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="52"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="50"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="42">
+      <c r="A60" s="55">
         <v>43244</v>
       </c>
-      <c r="B60" s="39">
+      <c r="B60" s="54">
         <v>1.5</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -1949,18 +1979,18 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="50"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="30" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="63">
+      <c r="A62" s="45">
         <v>43244</v>
       </c>
-      <c r="B62" s="60">
+      <c r="B62" s="42">
         <v>1</v>
       </c>
       <c r="C62" s="16" t="s">
@@ -1971,13 +2001,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="47">
+      <c r="A63" s="51">
         <v>43245</v>
       </c>
-      <c r="B63" s="45">
+      <c r="B63" s="48">
         <v>1.5</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="60" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -1985,21 +2015,21 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="55"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="61"/>
       <c r="D64" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="42">
+      <c r="A65" s="55">
         <v>43245</v>
       </c>
-      <c r="B65" s="39">
+      <c r="B65" s="54">
         <v>2</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="20" t="s">
@@ -2007,29 +2037,29 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="52"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="50"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="63"/>
       <c r="D67" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="42">
+      <c r="A68" s="55">
         <v>43245</v>
       </c>
-      <c r="B68" s="39">
+      <c r="B68" s="54">
         <v>1.5</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D68" s="21" t="s">
@@ -2037,18 +2067,18 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="44"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="53"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="59"/>
       <c r="D69" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="62">
+      <c r="A70" s="44">
         <v>43249</v>
       </c>
-      <c r="B70" s="59">
+      <c r="B70" s="41">
         <v>1</v>
       </c>
       <c r="C70" s="15" t="s">
@@ -2059,10 +2089,10 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="64">
+      <c r="A71" s="46">
         <v>43249</v>
       </c>
-      <c r="B71" s="57">
+      <c r="B71" s="39">
         <v>1</v>
       </c>
       <c r="C71" s="18" t="s">
@@ -2073,10 +2103,10 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="63">
+      <c r="A72" s="45">
         <v>43249</v>
       </c>
-      <c r="B72" s="60">
+      <c r="B72" s="42">
         <v>1.5</v>
       </c>
       <c r="C72" s="16" t="s">
@@ -2087,13 +2117,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47">
+      <c r="A73" s="51">
         <v>43250</v>
       </c>
-      <c r="B73" s="45">
+      <c r="B73" s="48">
         <v>2</v>
       </c>
-      <c r="C73" s="45" t="s">
+      <c r="C73" s="48" t="s">
         <v>83</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -2101,21 +2131,21 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
+      <c r="A74" s="53"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="50"/>
       <c r="D74" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="42">
+      <c r="A75" s="55">
         <v>43250</v>
       </c>
-      <c r="B75" s="39">
+      <c r="B75" s="54">
         <v>1.5</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="54" t="s">
         <v>83</v>
       </c>
       <c r="D75" s="35" t="s">
@@ -2123,21 +2153,21 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
+      <c r="A76" s="53"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
       <c r="D76" s="36" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="42">
+      <c r="A77" s="55">
         <v>43250</v>
       </c>
-      <c r="B77" s="39">
+      <c r="B77" s="54">
         <v>0.5</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="54" t="s">
         <v>83</v>
       </c>
       <c r="D77" s="20" t="s">
@@ -2145,37 +2175,37 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="49"/>
       <c r="D78" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="43"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="44"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
       <c r="D80" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="47">
+      <c r="A81" s="51">
         <v>43251</v>
       </c>
-      <c r="B81" s="45">
+      <c r="B81" s="48">
         <v>4</v>
       </c>
-      <c r="C81" s="45" t="s">
+      <c r="C81" s="48" t="s">
         <v>83</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -2183,26 +2213,26 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
       <c r="D82" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="46"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
       <c r="D83" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="64">
+      <c r="A84" s="46">
         <v>43251</v>
       </c>
-      <c r="B84" s="57">
+      <c r="B84" s="39">
         <v>1</v>
       </c>
       <c r="C84" s="18" t="s">
@@ -2213,13 +2243,13 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="42">
+      <c r="A85" s="55">
         <v>43251</v>
       </c>
-      <c r="B85" s="39">
+      <c r="B85" s="54">
         <v>1.5</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="54" t="s">
         <v>83</v>
       </c>
       <c r="D85" s="20" t="s">
@@ -2227,18 +2257,18 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="46"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
       <c r="D86" s="25" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="63">
+      <c r="A87" s="45">
         <v>43251</v>
       </c>
-      <c r="B87" s="60">
+      <c r="B87" s="42">
         <v>0.5</v>
       </c>
       <c r="C87" s="16" t="s">
@@ -2249,13 +2279,13 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="47">
+      <c r="A88" s="51">
         <v>43252</v>
       </c>
-      <c r="B88" s="45">
+      <c r="B88" s="48">
         <v>2</v>
       </c>
-      <c r="C88" s="45" t="s">
+      <c r="C88" s="48" t="s">
         <v>83</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -2263,26 +2293,26 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="46"/>
+      <c r="A90" s="53"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
       <c r="D90" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="64">
+      <c r="A91" s="46">
         <v>43252</v>
       </c>
-      <c r="B91" s="57">
+      <c r="B91" s="39">
         <v>1</v>
       </c>
       <c r="C91" s="18" t="s">
@@ -2293,10 +2323,10 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="64">
+      <c r="A92" s="46">
         <v>43252</v>
       </c>
-      <c r="B92" s="57">
+      <c r="B92" s="39">
         <v>1</v>
       </c>
       <c r="C92" s="18" t="s">
@@ -2307,10 +2337,10 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="64">
+      <c r="A93" s="46">
         <v>43252</v>
       </c>
-      <c r="B93" s="57">
+      <c r="B93" s="39">
         <v>1</v>
       </c>
       <c r="C93" s="18" t="s">
@@ -2321,10 +2351,10 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="63">
+      <c r="A94" s="45">
         <v>43252</v>
       </c>
-      <c r="B94" s="60">
+      <c r="B94" s="42">
         <v>0.5</v>
       </c>
       <c r="C94" s="16" t="s">
@@ -2334,9 +2364,168 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="44">
+        <v>43256</v>
+      </c>
+      <c r="B95" s="41">
+        <v>1</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="46">
+        <v>43256</v>
+      </c>
+      <c r="B96" s="39">
+        <v>1</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="46">
+        <v>43256</v>
+      </c>
+      <c r="B97" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="45">
+        <v>43256</v>
+      </c>
+      <c r="B98" s="42">
+        <v>1</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" s="27"/>
+    </row>
+    <row r="99" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="44">
+        <v>43256</v>
+      </c>
+      <c r="B99" s="41">
+        <v>1</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="55">
+        <v>43256</v>
+      </c>
+      <c r="B100" s="54">
+        <v>2</v>
+      </c>
+      <c r="C100" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="53"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="46">
+        <v>43256</v>
+      </c>
+      <c r="B102" s="39">
+        <v>4</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="65">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
     <mergeCell ref="C88:C90"/>
     <mergeCell ref="B88:B90"/>
     <mergeCell ref="A88:A90"/>
@@ -2346,59 +2535,6 @@
     <mergeCell ref="C85:C86"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D29" r:id="rId1"/>
@@ -2415,9 +2551,10 @@
     <hyperlink ref="D76" r:id="rId12"/>
     <hyperlink ref="D74" r:id="rId13"/>
     <hyperlink ref="D86" r:id="rId14"/>
+    <hyperlink ref="D101" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Gras"Présentiel pour open space&amp;C&amp;"-,Gras"&amp;14Journal de travail&amp;R&amp;"-,Gras"Cyril Kalbfuss</oddHeader>
   </headerFooter>

--- a/Doc/JournalTravail.xlsx
+++ b/Doc/JournalTravail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
   <si>
     <t>Date</t>
   </si>
@@ -411,6 +411,27 @@
   </si>
   <si>
     <t>Gestion des erreurs lors de la connexion Serial et gestion de tentatives de reconnexion. Ajout d'une page d'info accessible en cliquant sur le message d'erreur de connexion indiquant des solutions possibles.</t>
+  </si>
+  <si>
+    <t>Encore des fils cassés au niveau des soudures sur mon bouton. Cette fois je met de la gaine thermique autour pour solidifier le tout.</t>
+  </si>
+  <si>
+    <t>Lorsque Skype passe en appel, peu de temps après il revient à occupé. Je pense que le boitier renvoye orange et donc l'app croit devoir remettre à rouge vu que skype est connecté. Je vais ajouter une condition pour corriger ça.</t>
+  </si>
+  <si>
+    <t>Aucun autre souci détecté.</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Rédaction des résultats des tests</t>
+  </si>
+  <si>
+    <t>Correction du souci</t>
+  </si>
+  <si>
+    <t>Prise de photos et captures dé'écran pour ajouter aux tests</t>
   </si>
 </sst>
 </file>
@@ -978,62 +999,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1316,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,13 +1494,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
+      <c r="A11" s="54">
         <v>43237</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="52">
         <v>3.5</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="61" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1487,29 +1508,29 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="59"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="57">
         <v>43238</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="56">
         <v>3.5</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="58" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1517,65 +1538,65 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="62"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="62"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="62"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="62"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="62"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="63"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="8" t="s">
         <v>30</v>
       </c>
@@ -1595,13 +1616,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+      <c r="A24" s="54">
         <v>43242</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="52">
         <v>1</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="61" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1609,25 +1630,25 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="62"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="64"/>
       <c r="D26" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="61"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="8" t="s">
         <v>38</v>
       </c>
@@ -1647,13 +1668,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="55">
+      <c r="A29" s="48">
         <v>43242</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29" s="50">
         <v>1</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="60" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -1661,21 +1682,21 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="63"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="55">
+      <c r="A31" s="48">
         <v>43242</v>
       </c>
-      <c r="B31" s="54">
+      <c r="B31" s="50">
         <v>2</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="60" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -1683,21 +1704,21 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="59"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51">
+      <c r="A33" s="57">
         <v>43243</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="56">
         <v>1</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1705,9 +1726,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="63"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
@@ -1727,13 +1748,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="55">
+      <c r="A36" s="48">
         <v>43243</v>
       </c>
-      <c r="B36" s="54">
+      <c r="B36" s="50">
         <v>1.5</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="20" t="s">
@@ -1741,45 +1762,45 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="62"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="62"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="62"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="55">
+      <c r="A41" s="48">
         <v>43243</v>
       </c>
-      <c r="B41" s="54">
+      <c r="B41" s="50">
         <v>1</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="60" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -1787,29 +1808,29 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="63"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="55">
+      <c r="A44" s="48">
         <v>43243</v>
       </c>
-      <c r="B44" s="54">
+      <c r="B44" s="50">
         <v>2</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="60" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="26" t="s">
@@ -1817,41 +1838,41 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="62"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="61"/>
       <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="62"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="62"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="62"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="8" t="s">
         <v>59</v>
       </c>
@@ -1885,10 +1906,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="55">
+      <c r="A52" s="48">
         <v>43244</v>
       </c>
-      <c r="B52" s="54">
+      <c r="B52" s="50">
         <v>2</v>
       </c>
       <c r="C52" s="18" t="s">
@@ -1899,8 +1920,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
-      <c r="B53" s="49"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="18" t="s">
         <v>61</v>
       </c>
@@ -1909,8 +1930,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="50"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="18" t="s">
         <v>64</v>
       </c>
@@ -1919,13 +1940,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="55">
+      <c r="A55" s="48">
         <v>43244</v>
       </c>
-      <c r="B55" s="54">
+      <c r="B55" s="50">
         <v>2</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="60" t="s">
         <v>64</v>
       </c>
       <c r="D55" s="20" t="s">
@@ -1933,45 +1954,45 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="62"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="62"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="61"/>
       <c r="D57" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="62"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="61"/>
       <c r="D58" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="63"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="59"/>
       <c r="D59" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="55">
+      <c r="A60" s="48">
         <v>43244</v>
       </c>
-      <c r="B60" s="54">
+      <c r="B60" s="50">
         <v>1.5</v>
       </c>
-      <c r="C60" s="58" t="s">
+      <c r="C60" s="60" t="s">
         <v>64</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -1979,9 +2000,9 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="63"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="30" t="s">
         <v>74</v>
       </c>
@@ -2001,13 +2022,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="51">
+      <c r="A63" s="57">
         <v>43245</v>
       </c>
-      <c r="B63" s="48">
+      <c r="B63" s="56">
         <v>1.5</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="66" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -2015,21 +2036,21 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="61"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="55">
+      <c r="A65" s="48">
         <v>43245</v>
       </c>
-      <c r="B65" s="54">
+      <c r="B65" s="50">
         <v>2</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="60" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="20" t="s">
@@ -2037,29 +2058,29 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="62"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="63"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="59"/>
       <c r="D67" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="55">
+      <c r="A68" s="48">
         <v>43245</v>
       </c>
-      <c r="B68" s="54">
+      <c r="B68" s="50">
         <v>1.5</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="C68" s="60" t="s">
         <v>64</v>
       </c>
       <c r="D68" s="21" t="s">
@@ -2067,9 +2088,9 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="56"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="59"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="63"/>
       <c r="D69" s="3" t="s">
         <v>82</v>
       </c>
@@ -2117,13 +2138,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="51">
+      <c r="A73" s="57">
         <v>43250</v>
       </c>
-      <c r="B73" s="48">
+      <c r="B73" s="56">
         <v>2</v>
       </c>
-      <c r="C73" s="48" t="s">
+      <c r="C73" s="56" t="s">
         <v>83</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -2131,21 +2152,21 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="55">
+      <c r="A75" s="48">
         <v>43250</v>
       </c>
-      <c r="B75" s="54">
+      <c r="B75" s="50">
         <v>1.5</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="C75" s="50" t="s">
         <v>83</v>
       </c>
       <c r="D75" s="35" t="s">
@@ -2153,21 +2174,21 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="53"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
       <c r="D76" s="36" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="55">
+      <c r="A77" s="48">
         <v>43250</v>
       </c>
-      <c r="B77" s="54">
+      <c r="B77" s="50">
         <v>0.5</v>
       </c>
-      <c r="C77" s="54" t="s">
+      <c r="C77" s="50" t="s">
         <v>83</v>
       </c>
       <c r="D77" s="20" t="s">
@@ -2175,37 +2196,37 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="52"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="52"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="56"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
+      <c r="A80" s="55"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
       <c r="D80" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="51">
+      <c r="A81" s="57">
         <v>43251</v>
       </c>
-      <c r="B81" s="48">
+      <c r="B81" s="56">
         <v>4</v>
       </c>
-      <c r="C81" s="48" t="s">
+      <c r="C81" s="56" t="s">
         <v>83</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -2213,17 +2234,17 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
       <c r="D82" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50"/>
+      <c r="A83" s="49"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="8" t="s">
         <v>97</v>
       </c>
@@ -2243,13 +2264,13 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="55">
+      <c r="A85" s="48">
         <v>43251</v>
       </c>
-      <c r="B85" s="54">
+      <c r="B85" s="50">
         <v>1.5</v>
       </c>
-      <c r="C85" s="54" t="s">
+      <c r="C85" s="50" t="s">
         <v>83</v>
       </c>
       <c r="D85" s="20" t="s">
@@ -2257,9 +2278,9 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
       <c r="D86" s="25" t="s">
         <v>100</v>
       </c>
@@ -2279,13 +2300,13 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="51">
+      <c r="A88" s="57">
         <v>43252</v>
       </c>
-      <c r="B88" s="48">
+      <c r="B88" s="56">
         <v>2</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="56" t="s">
         <v>83</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -2293,17 +2314,17 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="52"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
+      <c r="A90" s="49"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
       <c r="D90" s="8" t="s">
         <v>107</v>
       </c>
@@ -2420,7 +2441,7 @@
     </row>
     <row r="99" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A99" s="44">
-        <v>43256</v>
+        <v>43257</v>
       </c>
       <c r="B99" s="41">
         <v>1</v>
@@ -2433,13 +2454,13 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="55">
-        <v>43256</v>
-      </c>
-      <c r="B100" s="54">
+      <c r="A100" s="48">
+        <v>43257</v>
+      </c>
+      <c r="B100" s="50">
         <v>2</v>
       </c>
-      <c r="C100" s="54" t="s">
+      <c r="C100" s="50" t="s">
         <v>83</v>
       </c>
       <c r="D100" s="20" t="s">
@@ -2447,53 +2468,134 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="53"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50"/>
+      <c r="A101" s="49"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="51"/>
       <c r="D101" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="46">
-        <v>43256</v>
-      </c>
-      <c r="B102" s="39">
+    <row r="102" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="45">
+        <v>43257</v>
+      </c>
+      <c r="B102" s="42">
         <v>4</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D102" s="28" t="s">
+      <c r="D102" s="27" t="s">
         <v>120</v>
       </c>
     </row>
+    <row r="103" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="44">
+        <v>43258</v>
+      </c>
+      <c r="B103" s="41">
+        <v>1</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="48">
+        <v>43258</v>
+      </c>
+      <c r="B104" s="50">
+        <v>2</v>
+      </c>
+      <c r="C104" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="49"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="46">
+        <v>43258</v>
+      </c>
+      <c r="B106" s="39">
+        <v>2</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="46">
+        <v>43258</v>
+      </c>
+      <c r="B107" s="39">
+        <v>1</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="45">
+        <v>43258</v>
+      </c>
+      <c r="B108" s="42">
+        <v>2</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
+  <mergeCells count="68">
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C24:C27"/>
@@ -2503,29 +2605,30 @@
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="B14:B22"/>
     <mergeCell ref="C14:C22"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
     <mergeCell ref="C88:C90"/>
     <mergeCell ref="B88:B90"/>
     <mergeCell ref="A88:A90"/>

--- a/Doc/JournalTravail.xlsx
+++ b/Doc/JournalTravail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="136">
   <si>
     <t>Date</t>
   </si>
@@ -432,6 +432,30 @@
   </si>
   <si>
     <t>Prise de photos et captures dé'écran pour ajouter aux tests</t>
+  </si>
+  <si>
+    <t>Rédaction des nouveaux tests.</t>
+  </si>
+  <si>
+    <t>Tests sur la configuration des ports COM. Lorsque l'on change un port dans les paramètres, la connexion se relance en utilisant l'ancien.</t>
+  </si>
+  <si>
+    <t>Il se trouve que lorsque l'on lance une connexion, il utilise la variable de l'objet. Il faut donc qu'elle soit changée lors du changement de paramètres.</t>
+  </si>
+  <si>
+    <t>Il reste l'erreur du bouton de switch qui joue son animation de survol en boucle. J'aimerais désaciver cela. Si je ne peux pas, je peux enlever le focus après le clic.</t>
+  </si>
+  <si>
+    <t>Le nom de type ou d'espace de noms 'Windows' n'existe pas dans l'espace de noms 'Microsoft''assembly ?</t>
+  </si>
+  <si>
+    <t>Il faudrait refaire le style correspondant au bouton pour pouvoir enlever cette animation. Je ne peux pas le faire car j'obtiens l'erreur suivante</t>
+  </si>
+  <si>
+    <t>Finalement j'utilise Keyboard.ClearFocus() pour supprimer le focus après le clic sur ce bouton et ne pas prendre plus de temps.</t>
+  </si>
+  <si>
+    <t>Rédaction de la documentation: Réalisation, Tests</t>
   </si>
 </sst>
 </file>
@@ -999,62 +1023,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1337,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,13 +1518,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
+      <c r="A11" s="63">
         <v>43237</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="62">
         <v>3.5</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="60" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1508,29 +1532,29 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="61"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="53"/>
-      <c r="C13" s="63"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57">
+      <c r="A14" s="59">
         <v>43238</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="58">
         <v>3.5</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="65" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1538,65 +1562,65 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="61"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="61"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="61"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="61"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="61"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="61"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="61"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="59"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="8" t="s">
         <v>30</v>
       </c>
@@ -1616,13 +1640,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="63">
         <v>43242</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="62">
         <v>1</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="60" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1630,25 +1654,25 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="61"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="64"/>
       <c r="D26" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="8" t="s">
         <v>38</v>
       </c>
@@ -1668,13 +1692,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="48">
+      <c r="A29" s="50">
         <v>43242</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29" s="48">
         <v>1</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="54" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -1682,21 +1706,21 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="59"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="48">
+      <c r="A31" s="50">
         <v>43242</v>
       </c>
-      <c r="B31" s="50">
+      <c r="B31" s="48">
         <v>2</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="54" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -1704,21 +1728,21 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="53"/>
-      <c r="C32" s="63"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57">
+      <c r="A33" s="59">
         <v>43243</v>
       </c>
-      <c r="B33" s="56">
+      <c r="B33" s="58">
         <v>1</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="65" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1726,9 +1750,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="59"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
@@ -1748,13 +1772,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="48">
+      <c r="A36" s="50">
         <v>43243</v>
       </c>
-      <c r="B36" s="50">
+      <c r="B36" s="48">
         <v>1.5</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="20" t="s">
@@ -1762,45 +1786,45 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="61"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="61"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="61"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="59"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="48">
+      <c r="A41" s="50">
         <v>43243</v>
       </c>
-      <c r="B41" s="50">
+      <c r="B41" s="48">
         <v>1</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="54" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -1808,29 +1832,29 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="61"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="59"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="48">
+      <c r="A44" s="50">
         <v>43243</v>
       </c>
-      <c r="B44" s="50">
+      <c r="B44" s="48">
         <v>2</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="54" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="26" t="s">
@@ -1838,41 +1862,41 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="61"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="61"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="61"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="61"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="60"/>
       <c r="D48" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="59"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="61"/>
       <c r="D49" s="8" t="s">
         <v>59</v>
       </c>
@@ -1906,10 +1930,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="48">
+      <c r="A52" s="50">
         <v>43244</v>
       </c>
-      <c r="B52" s="50">
+      <c r="B52" s="48">
         <v>2</v>
       </c>
       <c r="C52" s="18" t="s">
@@ -1920,8 +1944,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="18" t="s">
         <v>61</v>
       </c>
@@ -1930,8 +1954,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="51"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="18" t="s">
         <v>64</v>
       </c>
@@ -1940,13 +1964,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="48">
+      <c r="A55" s="50">
         <v>43244</v>
       </c>
-      <c r="B55" s="50">
+      <c r="B55" s="48">
         <v>2</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="54" t="s">
         <v>64</v>
       </c>
       <c r="D55" s="20" t="s">
@@ -1954,45 +1978,45 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="61"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="61"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="61"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="60"/>
       <c r="D58" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="59"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="61"/>
       <c r="D59" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="48">
+      <c r="A60" s="50">
         <v>43244</v>
       </c>
-      <c r="B60" s="50">
+      <c r="B60" s="48">
         <v>1.5</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="54" t="s">
         <v>64</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -2000,9 +2024,9 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="59"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="30" t="s">
         <v>74</v>
       </c>
@@ -2022,13 +2046,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57">
+      <c r="A63" s="59">
         <v>43245</v>
       </c>
-      <c r="B63" s="56">
+      <c r="B63" s="58">
         <v>1.5</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="56" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -2036,21 +2060,21 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="65"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="48">
+      <c r="A65" s="50">
         <v>43245</v>
       </c>
-      <c r="B65" s="50">
+      <c r="B65" s="48">
         <v>2</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="54" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="20" t="s">
@@ -2058,29 +2082,29 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="61"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="59"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="61"/>
       <c r="D67" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="48">
+      <c r="A68" s="50">
         <v>43245</v>
       </c>
-      <c r="B68" s="50">
+      <c r="B68" s="48">
         <v>1.5</v>
       </c>
-      <c r="C68" s="60" t="s">
+      <c r="C68" s="54" t="s">
         <v>64</v>
       </c>
       <c r="D68" s="21" t="s">
@@ -2088,9 +2112,9 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="55"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="53"/>
-      <c r="C69" s="63"/>
+      <c r="C69" s="55"/>
       <c r="D69" s="3" t="s">
         <v>82</v>
       </c>
@@ -2138,13 +2162,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="57">
+      <c r="A73" s="59">
         <v>43250</v>
       </c>
-      <c r="B73" s="56">
+      <c r="B73" s="58">
         <v>2</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="58" t="s">
         <v>83</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -2152,21 +2176,21 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="48">
+      <c r="A75" s="50">
         <v>43250</v>
       </c>
-      <c r="B75" s="50">
+      <c r="B75" s="48">
         <v>1.5</v>
       </c>
-      <c r="C75" s="50" t="s">
+      <c r="C75" s="48" t="s">
         <v>83</v>
       </c>
       <c r="D75" s="35" t="s">
@@ -2174,21 +2198,21 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="36" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="48">
+      <c r="A77" s="50">
         <v>43250</v>
       </c>
-      <c r="B77" s="50">
+      <c r="B77" s="48">
         <v>0.5</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="48" t="s">
         <v>83</v>
       </c>
       <c r="D77" s="20" t="s">
@@ -2196,23 +2220,23 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
       <c r="D79" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="55"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="53"/>
       <c r="C80" s="53"/>
       <c r="D80" s="3" t="s">
@@ -2220,13 +2244,13 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="57">
+      <c r="A81" s="59">
         <v>43251</v>
       </c>
-      <c r="B81" s="56">
+      <c r="B81" s="58">
         <v>4</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="58" t="s">
         <v>83</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -2234,17 +2258,17 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="52"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
       <c r="D82" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="8" t="s">
         <v>97</v>
       </c>
@@ -2264,13 +2288,13 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="48">
+      <c r="A85" s="50">
         <v>43251</v>
       </c>
-      <c r="B85" s="50">
+      <c r="B85" s="48">
         <v>1.5</v>
       </c>
-      <c r="C85" s="50" t="s">
+      <c r="C85" s="48" t="s">
         <v>83</v>
       </c>
       <c r="D85" s="20" t="s">
@@ -2278,9 +2302,9 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
       <c r="D86" s="25" t="s">
         <v>100</v>
       </c>
@@ -2300,13 +2324,13 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="57">
+      <c r="A88" s="59">
         <v>43252</v>
       </c>
-      <c r="B88" s="56">
+      <c r="B88" s="58">
         <v>2</v>
       </c>
-      <c r="C88" s="56" t="s">
+      <c r="C88" s="58" t="s">
         <v>83</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -2314,17 +2338,17 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="62"/>
       <c r="D89" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
+      <c r="A90" s="51"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="49"/>
       <c r="D90" s="8" t="s">
         <v>107</v>
       </c>
@@ -2454,13 +2478,13 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="48">
+      <c r="A100" s="50">
         <v>43257</v>
       </c>
-      <c r="B100" s="50">
+      <c r="B100" s="48">
         <v>2</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="48" t="s">
         <v>83</v>
       </c>
       <c r="D100" s="20" t="s">
@@ -2468,9 +2492,9 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="49"/>
-      <c r="B101" s="51"/>
-      <c r="C101" s="51"/>
+      <c r="A101" s="51"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="49"/>
       <c r="D101" s="25" t="s">
         <v>119</v>
       </c>
@@ -2504,13 +2528,13 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A104" s="48">
+      <c r="A104" s="50">
         <v>43258</v>
       </c>
-      <c r="B104" s="50">
+      <c r="B104" s="48">
         <v>2</v>
       </c>
-      <c r="C104" s="50" t="s">
+      <c r="C104" s="48" t="s">
         <v>124</v>
       </c>
       <c r="D104" s="20" t="s">
@@ -2518,9 +2542,9 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="49"/>
-      <c r="B105" s="51"/>
-      <c r="C105" s="51"/>
+      <c r="A105" s="51"/>
+      <c r="B105" s="49"/>
+      <c r="C105" s="49"/>
       <c r="D105" s="8" t="s">
         <v>123</v>
       </c>
@@ -2567,66 +2591,106 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="44">
+        <v>43259</v>
+      </c>
+      <c r="B109" s="41">
+        <v>1</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="46">
+        <v>43259</v>
+      </c>
+      <c r="B110" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="46">
+        <v>43259</v>
+      </c>
+      <c r="B111" s="39">
+        <v>1</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="50">
+        <v>43259</v>
+      </c>
+      <c r="B112" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="C112" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="63"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="63"/>
+      <c r="B114" s="62"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="51"/>
+      <c r="B115" s="49"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="45">
+        <v>43259</v>
+      </c>
+      <c r="B116" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C77:C80"/>
+  <mergeCells count="71">
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="A112:A115"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="B77:B80"/>
     <mergeCell ref="C88:C90"/>
@@ -2638,6 +2702,63 @@
     <mergeCell ref="C85:C86"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D29" r:id="rId1"/>

--- a/Doc/JournalTravail.xlsx
+++ b/Doc/JournalTravail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="142">
   <si>
     <t>Date</t>
   </si>
@@ -456,6 +456,24 @@
   </si>
   <si>
     <t>Rédaction de la documentation: Réalisation, Tests</t>
+  </si>
+  <si>
+    <t>Rédaction: Concolusion, Sources</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Création d'un installeur</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Revue de la planification: il y a un souci avec l'automation du temps. Des tâches ont des dates avant les tâches précédentes.</t>
+  </si>
+  <si>
+    <t>Résumé, glossaire et finalisation</t>
   </si>
 </sst>
 </file>
@@ -882,7 +900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1026,12 +1044,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1041,44 +1074,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1361,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,13 +1545,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="63">
+      <c r="A11" s="55">
         <v>43237</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="52">
         <v>3.5</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="64" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1532,29 +1559,29 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="60"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59">
+      <c r="A14" s="60">
         <v>43238</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="59">
         <v>3.5</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="61" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1562,65 +1589,65 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="60"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="60"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="60"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="61"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="8" t="s">
         <v>30</v>
       </c>
@@ -1640,13 +1667,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63">
+      <c r="A24" s="55">
         <v>43242</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="52">
         <v>1</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="64" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1654,25 +1681,25 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="60"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="64"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="57"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="8" t="s">
         <v>38</v>
       </c>
@@ -1692,13 +1719,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="50">
+      <c r="A29" s="54">
         <v>43242</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="51">
         <v>1</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="63" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -1706,21 +1733,21 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="61"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="50">
+      <c r="A31" s="54">
         <v>43242</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="51">
         <v>2</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -1728,21 +1755,21 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="55"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59">
+      <c r="A33" s="60">
         <v>43243</v>
       </c>
-      <c r="B33" s="58">
+      <c r="B33" s="59">
         <v>1</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="61" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1750,9 +1777,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="61"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
@@ -1772,13 +1799,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="50">
+      <c r="A36" s="54">
         <v>43243</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="51">
         <v>1.5</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="63" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="20" t="s">
@@ -1786,45 +1813,45 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="60"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="60"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="60"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="61"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="50">
+      <c r="A41" s="54">
         <v>43243</v>
       </c>
-      <c r="B41" s="48">
+      <c r="B41" s="51">
         <v>1</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -1832,29 +1859,29 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="60"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="61"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="50">
+      <c r="A44" s="54">
         <v>43243</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="51">
         <v>2</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="63" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="26" t="s">
@@ -1862,41 +1889,41 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="60"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="60"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="60"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="60"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="61"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="8" t="s">
         <v>59</v>
       </c>
@@ -1930,10 +1957,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="50">
+      <c r="A52" s="54">
         <v>43244</v>
       </c>
-      <c r="B52" s="48">
+      <c r="B52" s="51">
         <v>2</v>
       </c>
       <c r="C52" s="18" t="s">
@@ -1944,8 +1971,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="62"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="18" t="s">
         <v>61</v>
       </c>
@@ -1954,8 +1981,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="49"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="18" t="s">
         <v>64</v>
       </c>
@@ -1964,13 +1991,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="50">
+      <c r="A55" s="54">
         <v>43244</v>
       </c>
-      <c r="B55" s="48">
+      <c r="B55" s="51">
         <v>2</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="63" t="s">
         <v>64</v>
       </c>
       <c r="D55" s="20" t="s">
@@ -1978,45 +2005,45 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="60"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="60"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="60"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="61"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="50">
+      <c r="A60" s="54">
         <v>43244</v>
       </c>
-      <c r="B60" s="48">
+      <c r="B60" s="51">
         <v>1.5</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="63" t="s">
         <v>64</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -2024,9 +2051,9 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="61"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="30" t="s">
         <v>74</v>
       </c>
@@ -2046,13 +2073,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59">
+      <c r="A63" s="60">
         <v>43245</v>
       </c>
-      <c r="B63" s="58">
+      <c r="B63" s="59">
         <v>1.5</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="69" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -2060,21 +2087,21 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="57"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="50">
+      <c r="A65" s="54">
         <v>43245</v>
       </c>
-      <c r="B65" s="48">
+      <c r="B65" s="51">
         <v>2</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="63" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="20" t="s">
@@ -2082,29 +2109,29 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="60"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="61"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="50">
+      <c r="A68" s="54">
         <v>43245</v>
       </c>
-      <c r="B68" s="48">
+      <c r="B68" s="51">
         <v>1.5</v>
       </c>
-      <c r="C68" s="54" t="s">
+      <c r="C68" s="63" t="s">
         <v>64</v>
       </c>
       <c r="D68" s="21" t="s">
@@ -2112,9 +2139,9 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="52"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="55"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="66"/>
       <c r="D69" s="3" t="s">
         <v>82</v>
       </c>
@@ -2162,13 +2189,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59">
+      <c r="A73" s="60">
         <v>43250</v>
       </c>
-      <c r="B73" s="58">
+      <c r="B73" s="59">
         <v>2</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="59" t="s">
         <v>83</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -2176,21 +2203,21 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
       <c r="D74" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="50">
+      <c r="A75" s="54">
         <v>43250</v>
       </c>
-      <c r="B75" s="48">
+      <c r="B75" s="51">
         <v>1.5</v>
       </c>
-      <c r="C75" s="48" t="s">
+      <c r="C75" s="51" t="s">
         <v>83</v>
       </c>
       <c r="D75" s="35" t="s">
@@ -2198,21 +2225,21 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
+      <c r="A76" s="56"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="36" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="50">
+      <c r="A77" s="54">
         <v>43250</v>
       </c>
-      <c r="B77" s="48">
+      <c r="B77" s="51">
         <v>0.5</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C77" s="51" t="s">
         <v>83</v>
       </c>
       <c r="D77" s="20" t="s">
@@ -2220,37 +2247,37 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="63"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
+      <c r="A78" s="55"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="63"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="52"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="58"/>
       <c r="D80" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="59">
+      <c r="A81" s="60">
         <v>43251</v>
       </c>
-      <c r="B81" s="58">
+      <c r="B81" s="59">
         <v>4</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="59" t="s">
         <v>83</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -2258,17 +2285,17 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="63"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
       <c r="D82" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
       <c r="D83" s="8" t="s">
         <v>97</v>
       </c>
@@ -2288,13 +2315,13 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="50">
+      <c r="A85" s="54">
         <v>43251</v>
       </c>
-      <c r="B85" s="48">
+      <c r="B85" s="51">
         <v>1.5</v>
       </c>
-      <c r="C85" s="48" t="s">
+      <c r="C85" s="51" t="s">
         <v>83</v>
       </c>
       <c r="D85" s="20" t="s">
@@ -2302,9 +2329,9 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
       <c r="D86" s="25" t="s">
         <v>100</v>
       </c>
@@ -2324,13 +2351,13 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="59">
+      <c r="A88" s="60">
         <v>43252</v>
       </c>
-      <c r="B88" s="58">
+      <c r="B88" s="59">
         <v>2</v>
       </c>
-      <c r="C88" s="58" t="s">
+      <c r="C88" s="59" t="s">
         <v>83</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -2338,17 +2365,17 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="63"/>
-      <c r="B89" s="62"/>
-      <c r="C89" s="62"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
       <c r="D90" s="8" t="s">
         <v>107</v>
       </c>
@@ -2478,13 +2505,13 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="50">
+      <c r="A100" s="54">
         <v>43257</v>
       </c>
-      <c r="B100" s="48">
+      <c r="B100" s="51">
         <v>2</v>
       </c>
-      <c r="C100" s="48" t="s">
+      <c r="C100" s="51" t="s">
         <v>83</v>
       </c>
       <c r="D100" s="20" t="s">
@@ -2492,9 +2519,9 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="51"/>
-      <c r="B101" s="49"/>
-      <c r="C101" s="49"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
       <c r="D101" s="25" t="s">
         <v>119</v>
       </c>
@@ -2528,13 +2555,13 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A104" s="50">
+      <c r="A104" s="54">
         <v>43258</v>
       </c>
-      <c r="B104" s="48">
+      <c r="B104" s="51">
         <v>2</v>
       </c>
-      <c r="C104" s="48" t="s">
+      <c r="C104" s="51" t="s">
         <v>124</v>
       </c>
       <c r="D104" s="20" t="s">
@@ -2542,9 +2569,9 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="51"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="49"/>
+      <c r="A105" s="56"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
       <c r="D105" s="8" t="s">
         <v>123</v>
       </c>
@@ -2633,118 +2660,137 @@
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="50">
+    <row r="112" spans="1:4" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="49"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="20"/>
+    </row>
+    <row r="113" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="54">
         <v>43259</v>
       </c>
-      <c r="B112" s="48">
+      <c r="B113" s="51">
         <v>1.5</v>
       </c>
-      <c r="C112" s="48" t="s">
+      <c r="C113" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D112" s="20" t="s">
+      <c r="D113" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="63"/>
-      <c r="B113" s="62"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="4" t="s">
+    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="55"/>
+      <c r="B114" s="52"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="63"/>
-      <c r="B114" s="62"/>
-      <c r="C114" s="62"/>
-      <c r="D114" s="4" t="s">
+    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="55"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="51"/>
-      <c r="B115" s="49"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="8" t="s">
+    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="56"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="45">
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="45">
         <v>43259</v>
       </c>
-      <c r="B116" s="42">
+      <c r="B117" s="42">
         <v>1.5</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C117" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="27" t="s">
+      <c r="D117" s="27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="44">
+        <v>43263</v>
+      </c>
+      <c r="B118" s="41">
+        <v>1</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="46">
+        <v>43263</v>
+      </c>
+      <c r="B119" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="46">
+        <v>43263</v>
+      </c>
+      <c r="B120" s="39">
+        <v>1</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="46">
+        <v>43263</v>
+      </c>
+      <c r="B121" s="39">
+        <v>1</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="45">
+        <v>43263</v>
+      </c>
+      <c r="B122" s="42">
+        <v>1</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B104:B105"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
@@ -2759,6 +2805,63 @@
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="C100:C101"/>
     <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B104:B105"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D29" r:id="rId1"/>
@@ -2780,7 +2883,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"-,Gras"Présentiel pour open space&amp;C&amp;"-,Gras"&amp;14Journal de travail&amp;R&amp;"-,Gras"Cyril Kalbfuss</oddHeader>
+    <oddHeader>&amp;L&amp;"-,Gras"Présentiel pour open space&amp;C&amp;"-,Gras"&amp;14Journal de travail&amp;R&amp;"-,Gras"Cyril Kalbfuss - 2018</oddHeader>
+    <oddFooter>&amp;RPage &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>